--- a/tasks/finalpool/excel-data-transformation/groundtruth_workspace/Processed.xlsx
+++ b/tasks/finalpool/excel-data-transformation/groundtruth_workspace/Processed.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zws_zju_Junior2\summer intern\MCP-Benchmark\excel_complex\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lockon\Desktop\tes\tmp\test\excel-data-transformation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5078921E-06F8-4766-A2E7-BD9870CA02B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47274115-C7B7-47BB-AD83-AA66BEE8B7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Processed_Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -244,22 +244,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Household Refrigerator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Air Conditioner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Household Washing Machines</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Household Refrigerators</t>
+  </si>
+  <si>
+    <t>Air Conditioners</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -309,12 +310,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -952,22 +956,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" style="2" customWidth="1"/>
-    <col min="2" max="2" width="36.453125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="46.7265625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="43.54296875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30.08984375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.7265625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="2"/>
+    <col min="2" max="2" width="36.4609375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="46.69140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="43.53515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.07421875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.69140625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.69140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
@@ -987,12 +991,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2">
         <v>899.1</v>
@@ -1000,19 +1004,19 @@
       <c r="D2" s="2">
         <v>10395.700000000001</v>
       </c>
-      <c r="E2" s="2">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="F2" s="2">
-        <v>8.3000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" s="3">
+        <v>10.299999999999999</v>
+      </c>
+      <c r="F2" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2">
         <v>2369.5</v>
@@ -1020,19 +1024,19 @@
       <c r="D3" s="2">
         <v>26598.400000000001</v>
       </c>
-      <c r="E3" s="2">
-        <v>0.129</v>
-      </c>
-      <c r="F3" s="2">
-        <v>9.6999999999999989E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="3">
+        <v>12.9</v>
+      </c>
+      <c r="F3" s="3">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2">
         <v>1226.5</v>
@@ -1040,19 +1044,19 @@
       <c r="D4" s="2">
         <v>11736.5</v>
       </c>
-      <c r="E4" s="2">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="F4" s="2">
-        <v>8.8000000000000009E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="3">
+        <v>27.900000000000002</v>
+      </c>
+      <c r="F4" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2">
         <v>860.9</v>
@@ -1060,19 +1064,19 @@
       <c r="D5" s="2">
         <v>9588.5</v>
       </c>
-      <c r="E5" s="2">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="F5" s="2">
-        <v>8.1000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="F5" s="3">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2">
         <v>1967.9</v>
@@ -1080,19 +1084,19 @@
       <c r="D6" s="2">
         <v>24237.4</v>
       </c>
-      <c r="E6" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="F6" s="2">
-        <v>9.4E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="3">
+        <v>27</v>
+      </c>
+      <c r="F6" s="3">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2">
         <v>1112.7</v>
@@ -1100,19 +1104,19 @@
       <c r="D7" s="2">
         <v>10458.200000000001</v>
       </c>
-      <c r="E7" s="2">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="F7" s="2">
-        <v>6.3E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2">
         <v>897.1</v>
@@ -1120,19 +1124,19 @@
       <c r="D8" s="2">
         <v>8727.6</v>
       </c>
-      <c r="E8" s="2">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="F8" s="2">
-        <v>8.5000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="3">
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="F8" s="3">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2">
         <v>1620.2</v>
@@ -1140,19 +1144,19 @@
       <c r="D9" s="2">
         <v>22480.9</v>
       </c>
-      <c r="E9" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F9" s="2">
-        <v>8.199999999999999E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="3">
+        <v>14.000000000000002</v>
+      </c>
+      <c r="F9" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2">
         <v>1102.8</v>
@@ -1160,19 +1164,19 @@
       <c r="D10" s="2">
         <v>9345.5</v>
       </c>
-      <c r="E10" s="2">
-        <v>6.3E-2</v>
-      </c>
-      <c r="F10" s="2">
-        <v>6.7000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="F10" s="3">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C11" s="2">
         <v>962.9</v>
@@ -1180,19 +1184,19 @@
       <c r="D11" s="2">
         <v>7742.1</v>
       </c>
-      <c r="E11" s="2">
-        <v>0.09</v>
-      </c>
-      <c r="F11" s="2">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="3">
+        <v>9</v>
+      </c>
+      <c r="F11" s="3">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C12" s="2">
         <v>1884.1</v>
@@ -1200,19 +1204,19 @@
       <c r="D12" s="2">
         <v>21028.6</v>
       </c>
-      <c r="E12" s="2">
-        <v>0.107</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="3">
+        <v>10.7</v>
+      </c>
+      <c r="F12" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C13" s="2">
         <v>1097</v>
@@ -1220,19 +1224,19 @@
       <c r="D13" s="2">
         <v>8242.7000000000007</v>
       </c>
-      <c r="E13" s="2">
-        <v>3.1E-2</v>
-      </c>
-      <c r="F13" s="2">
-        <v>6.7000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C14" s="2">
         <v>897.7</v>
@@ -1240,19 +1244,19 @@
       <c r="D14" s="2">
         <v>6781.6</v>
       </c>
-      <c r="E14" s="2">
-        <v>4.7E-2</v>
-      </c>
-      <c r="F14" s="2">
-        <v>7.2999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="F14" s="3">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C15" s="2">
         <v>1498</v>
@@ -1260,19 +1264,19 @@
       <c r="D15" s="2">
         <v>19139.099999999999</v>
       </c>
-      <c r="E15" s="2">
-        <v>-9.4E-2</v>
-      </c>
-      <c r="F15" s="2">
-        <v>7.8E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" s="3">
+        <v>-9.4</v>
+      </c>
+      <c r="F15" s="3">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C16" s="2">
         <v>1011.2</v>
@@ -1280,19 +1284,19 @@
       <c r="D16" s="2">
         <v>7145.9</v>
       </c>
-      <c r="E16" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F16" s="2">
-        <v>7.2000000000000008E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" s="3">
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="F16" s="3">
+        <v>7.2000000000000011</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C17" s="2">
         <v>830.4</v>
@@ -1300,19 +1304,19 @@
       <c r="D17" s="2">
         <v>5861</v>
       </c>
-      <c r="E17" s="2">
-        <v>-0.03</v>
-      </c>
-      <c r="F17" s="2">
-        <v>7.2999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="3">
+        <v>-3</v>
+      </c>
+      <c r="F17" s="3">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C18" s="2">
         <v>2020.1</v>
@@ -1320,19 +1324,19 @@
       <c r="D18" s="2">
         <v>17661.3</v>
       </c>
-      <c r="E18" s="2">
-        <v>-0.129</v>
-      </c>
-      <c r="F18" s="2">
-        <v>9.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="3">
+        <v>-12.9</v>
+      </c>
+      <c r="F18" s="3">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C19" s="2">
         <v>845.6</v>
@@ -1340,19 +1344,19 @@
       <c r="D19" s="2">
         <v>6142.9</v>
       </c>
-      <c r="E19" s="2">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="F19" s="2">
-        <v>7.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" s="3">
+        <v>13.8</v>
+      </c>
+      <c r="F19" s="3">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C20" s="2">
         <v>871.8</v>
@@ -1360,19 +1364,19 @@
       <c r="D20" s="2">
         <v>5051</v>
       </c>
-      <c r="E20" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="F20" s="2">
-        <v>9.6999999999999989E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C21" s="2">
         <v>2805.3</v>
@@ -1380,19 +1384,19 @@
       <c r="D21" s="2">
         <v>15705.6</v>
       </c>
-      <c r="E21" s="2">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0.13800000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="F21" s="3">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C22" s="2">
         <v>815.7</v>
@@ -1400,19 +1404,19 @@
       <c r="D22" s="2">
         <v>5311.6</v>
       </c>
-      <c r="E22" s="2">
-        <v>-3.5999999999999997E-2</v>
-      </c>
-      <c r="F22" s="2">
-        <v>6.8000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" s="3">
+        <v>-3.5999999999999996</v>
+      </c>
+      <c r="F22" s="3">
+        <v>6.8000000000000007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C23" s="2">
         <v>893.2</v>
@@ -1420,19 +1424,19 @@
       <c r="D23" s="2">
         <v>4179.1000000000004</v>
       </c>
-      <c r="E23" s="2">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0.121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="F23" s="3">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C24" s="2">
         <v>2905</v>
@@ -1440,19 +1444,19 @@
       <c r="D24" s="2">
         <v>12880.7</v>
       </c>
-      <c r="E24" s="2">
-        <v>0.129</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0.16700000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" s="3">
+        <v>12.9</v>
+      </c>
+      <c r="F24" s="3">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C25" s="2">
         <v>927.4</v>
@@ -1460,19 +1464,19 @@
       <c r="D25" s="2">
         <v>4495.3999999999996</v>
       </c>
-      <c r="E25" s="2">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="F25" s="2">
-        <v>9.4E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="F25" s="3">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C26" s="2">
         <v>933.6</v>
@@ -1480,19 +1484,19 @@
       <c r="D26" s="2">
         <v>3285.9</v>
       </c>
-      <c r="E26" s="2">
-        <v>0.154</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0.14099999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26" s="3">
+        <v>15.4</v>
+      </c>
+      <c r="F26" s="3">
+        <v>14.099999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C27" s="2">
         <v>3033.1</v>
@@ -1500,19 +1504,19 @@
       <c r="D27" s="2">
         <v>9914</v>
       </c>
-      <c r="E27" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0.17599999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27" s="3">
+        <v>20</v>
+      </c>
+      <c r="F27" s="3">
+        <v>17.599999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C28" s="2">
         <v>944.3</v>
@@ -1520,19 +1524,19 @@
       <c r="D28" s="2">
         <v>3546.2</v>
       </c>
-      <c r="E28" s="2">
-        <v>2.3E-2</v>
-      </c>
-      <c r="F28" s="2">
-        <v>0.10299999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F28" s="3">
+        <v>10.299999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C29" s="2">
         <v>993.4</v>
@@ -1540,19 +1544,19 @@
       <c r="D29" s="2">
         <v>2362.1</v>
       </c>
-      <c r="E29" s="2">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="F29" s="2">
-        <v>0.128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" s="3">
+        <v>13.200000000000001</v>
+      </c>
+      <c r="F29" s="3">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C30" s="2">
         <v>3083.3</v>
@@ -1560,19 +1564,19 @@
       <c r="D30" s="2">
         <v>6878</v>
       </c>
-      <c r="E30" s="2">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="F30" s="2">
-        <v>0.16500000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30" s="3">
+        <v>13.200000000000001</v>
+      </c>
+      <c r="F30" s="3">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C31" s="2">
         <v>932.4</v>
@@ -1580,70 +1584,70 @@
       <c r="D31" s="2">
         <v>2559.9</v>
       </c>
-      <c r="E31" s="2">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="F31" s="2">
-        <v>0.13800000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E31" s="3">
+        <v>5.8999999999999995</v>
+      </c>
+      <c r="F31" s="3">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D32" s="2">
         <v>1374.4</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="3">
         <v>0</v>
       </c>
-      <c r="F32" s="2">
-        <v>0.128</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="3">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D33" s="2">
         <v>3763.6</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="3">
         <v>0</v>
       </c>
-      <c r="F33" s="2">
-        <v>0.188</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="3">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D34" s="2">
         <v>1622.5</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="3">
         <v>0</v>
       </c>
-      <c r="F34" s="2">
-        <v>0.185</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="3">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2">
         <v>817.3</v>
@@ -1651,19 +1655,19 @@
       <c r="D35" s="2">
         <v>9632.2999999999993</v>
       </c>
-      <c r="E35" s="2">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="F35" s="2">
-        <v>0.14499999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E35" s="3">
+        <v>14.6</v>
+      </c>
+      <c r="F35" s="3">
+        <v>14.499999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2">
         <v>2152.9</v>
@@ -1671,19 +1675,19 @@
       <c r="D36" s="2">
         <v>24487</v>
       </c>
-      <c r="E36" s="2">
-        <v>0.26900000000000002</v>
-      </c>
-      <c r="F36" s="2">
-        <v>0.13500000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E36" s="3">
+        <v>26.900000000000002</v>
+      </c>
+      <c r="F36" s="3">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C37" s="2">
         <v>923.4</v>
@@ -1691,19 +1695,19 @@
       <c r="D37" s="2">
         <v>10458.299999999999</v>
       </c>
-      <c r="E37" s="2">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="F37" s="2">
-        <v>0.193</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E37" s="3">
+        <v>11.899999999999999</v>
+      </c>
+      <c r="F37" s="3">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C38" s="2">
         <v>828.6</v>
@@ -1711,19 +1715,19 @@
       <c r="D38" s="2">
         <v>8815.4</v>
       </c>
-      <c r="E38" s="2">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="F38" s="2">
-        <v>0.14499999999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E38" s="3">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="F38" s="3">
+        <v>14.499999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C39" s="2">
         <v>1595.7</v>
@@ -1731,19 +1735,19 @@
       <c r="D39" s="2">
         <v>22334.1</v>
       </c>
-      <c r="E39" s="2">
-        <v>0.128</v>
-      </c>
-      <c r="F39" s="2">
-        <v>0.126</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E39" s="3">
+        <v>12.8</v>
+      </c>
+      <c r="F39" s="3">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C40" s="2">
         <v>1025.3</v>
@@ -1751,19 +1755,19 @@
       <c r="D40" s="2">
         <v>9535.7999999999993</v>
       </c>
-      <c r="E40" s="2">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="F40" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E40" s="3">
+        <v>13.4</v>
+      </c>
+      <c r="F40" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C41" s="2">
         <v>827.2</v>
@@ -1771,19 +1775,19 @@
       <c r="D41" s="2">
         <v>7996.8</v>
       </c>
-      <c r="E41" s="2">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="F41" s="2">
-        <v>0.14099999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E41" s="3">
+        <v>20.3</v>
+      </c>
+      <c r="F41" s="3">
+        <v>14.099999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C42" s="2">
         <v>1373</v>
@@ -1791,19 +1795,19 @@
       <c r="D42" s="2">
         <v>20738.5</v>
       </c>
-      <c r="E42" s="2">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="F42" s="2">
-        <v>0.124</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E42" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="F42" s="3">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C43" s="2">
         <v>1005.7</v>
@@ -1811,19 +1815,19 @@
       <c r="D43" s="2">
         <v>8500.5</v>
       </c>
-      <c r="E43" s="2">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="F43" s="2">
-        <v>0.20699999999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E43" s="3">
+        <v>14.499999999999998</v>
+      </c>
+      <c r="F43" s="3">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C44" s="2">
         <v>885.1</v>
@@ -1831,19 +1835,19 @@
       <c r="D44" s="2">
         <v>7182.4</v>
       </c>
-      <c r="E44" s="2">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="F44" s="2">
-        <v>0.13600000000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E44" s="3">
+        <v>13.200000000000001</v>
+      </c>
+      <c r="F44" s="3">
+        <v>13.600000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C45" s="2">
         <v>1611.4</v>
@@ -1851,19 +1855,19 @@
       <c r="D45" s="2">
         <v>19366.2</v>
       </c>
-      <c r="E45" s="2">
-        <v>-9.6999999999999989E-2</v>
-      </c>
-      <c r="F45" s="2">
-        <v>0.13700000000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E45" s="3">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="F45" s="3">
+        <v>13.700000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C46" s="2">
         <v>1035</v>
@@ -1871,19 +1875,19 @@
       <c r="D46" s="2">
         <v>7495.7</v>
       </c>
-      <c r="E46" s="2">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="F46" s="2">
-        <v>0.219</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E46" s="3">
+        <v>24.2</v>
+      </c>
+      <c r="F46" s="3">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C47" s="2">
         <v>838.3</v>
@@ -1891,19 +1895,19 @@
       <c r="D47" s="2">
         <v>6297.3</v>
       </c>
-      <c r="E47" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="F47" s="2">
-        <v>0.14499999999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E47" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="F47" s="3">
+        <v>14.499999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C48" s="2">
         <v>1643.4</v>
@@ -1911,19 +1915,19 @@
       <c r="D48" s="2">
         <v>17745</v>
       </c>
-      <c r="E48" s="2">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="F48" s="2">
-        <v>0.16500000000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E48" s="3">
+        <v>5.8999999999999995</v>
+      </c>
+      <c r="F48" s="3">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C49" s="2">
         <v>917.1</v>
@@ -1931,19 +1935,19 @@
       <c r="D49" s="2">
         <v>6460.7</v>
       </c>
-      <c r="E49" s="2">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="F49" s="2">
-        <v>0.23599999999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E49" s="3">
+        <v>40.9</v>
+      </c>
+      <c r="F49" s="3">
+        <v>23.599999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C50" s="2">
         <v>849.5</v>
@@ -1951,19 +1955,19 @@
       <c r="D50" s="2">
         <v>5588.2</v>
       </c>
-      <c r="E50" s="2">
-        <v>0.153</v>
-      </c>
-      <c r="F50" s="2">
-        <v>0.13800000000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E50" s="3">
+        <v>15.299999999999999</v>
+      </c>
+      <c r="F50" s="3">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C51" s="2">
         <v>2305.8000000000002</v>
@@ -1971,19 +1975,19 @@
       <c r="D51" s="2">
         <v>16348</v>
       </c>
-      <c r="E51" s="2">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F51" s="2">
-        <v>0.17899999999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E51" s="3">
+        <v>28.999999999999996</v>
+      </c>
+      <c r="F51" s="3">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C52" s="2">
         <v>727.4</v>
@@ -1991,19 +1995,19 @@
       <c r="D52" s="2">
         <v>5641.4</v>
       </c>
-      <c r="E52" s="2">
-        <v>0.159</v>
-      </c>
-      <c r="F52" s="2">
-        <v>0.19900000000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E52" s="3">
+        <v>15.9</v>
+      </c>
+      <c r="F52" s="3">
+        <v>19.900000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C53" s="2">
         <v>875</v>
@@ -2011,19 +2015,19 @@
       <c r="D53" s="2">
         <v>4738.7</v>
       </c>
-      <c r="E53" s="2">
-        <v>0.214</v>
-      </c>
-      <c r="F53" s="2">
-        <v>0.13300000000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E53" s="3">
+        <v>21.4</v>
+      </c>
+      <c r="F53" s="3">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C54" s="2">
         <v>2637.6</v>
@@ -2031,19 +2035,19 @@
       <c r="D54" s="2">
         <v>14059.9</v>
       </c>
-      <c r="E54" s="2">
-        <v>0.252</v>
-      </c>
-      <c r="F54" s="2">
-        <v>0.16600000000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E54" s="3">
+        <v>25.2</v>
+      </c>
+      <c r="F54" s="3">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C55" s="2">
         <v>830.5</v>
@@ -2051,19 +2055,19 @@
       <c r="D55" s="2">
         <v>4913</v>
       </c>
-      <c r="E55" s="2">
-        <v>0.255</v>
-      </c>
-      <c r="F55" s="2">
-        <v>0.20499999999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E55" s="3">
+        <v>25.5</v>
+      </c>
+      <c r="F55" s="3">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C56" s="2">
         <v>850</v>
@@ -2071,19 +2075,19 @@
       <c r="D56" s="2">
         <v>3857.9</v>
       </c>
-      <c r="E56" s="2">
-        <v>0.28399999999999997</v>
-      </c>
-      <c r="F56" s="2">
-        <v>0.124</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E56" s="3">
+        <v>28.4</v>
+      </c>
+      <c r="F56" s="3">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C57" s="2">
         <v>2606.3000000000002</v>
@@ -2091,19 +2095,19 @@
       <c r="D57" s="2">
         <v>11425</v>
       </c>
-      <c r="E57" s="2">
-        <v>0.183</v>
-      </c>
-      <c r="F57" s="2">
-        <v>0.14199999999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E57" s="3">
+        <v>18.3</v>
+      </c>
+      <c r="F57" s="3">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C58" s="2">
         <v>870.5</v>
@@ -2111,19 +2115,19 @@
       <c r="D58" s="2">
         <v>4082.5</v>
       </c>
-      <c r="E58" s="2">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="F58" s="2">
-        <v>0.189</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E58" s="3">
+        <v>29.4</v>
+      </c>
+      <c r="F58" s="3">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2">
         <v>840.9</v>
@@ -2131,19 +2135,19 @@
       <c r="D59" s="2">
         <v>3009.4</v>
       </c>
-      <c r="E59" s="2">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="F59" s="2">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E59" s="3">
+        <v>29.7</v>
+      </c>
+      <c r="F59" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2">
         <v>2586.9</v>
@@ -2151,19 +2155,19 @@
       <c r="D60" s="2">
         <v>8869.5</v>
       </c>
-      <c r="E60" s="2">
-        <v>0.121</v>
-      </c>
-      <c r="F60" s="2">
-        <v>0.122</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E60" s="3">
+        <v>12.1</v>
+      </c>
+      <c r="F60" s="3">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C61" s="2">
         <v>920.9</v>
@@ -2171,19 +2175,19 @@
       <c r="D61" s="2">
         <v>3211.4</v>
       </c>
-      <c r="E61" s="2">
-        <v>0.41599999999999998</v>
-      </c>
-      <c r="F61" s="2">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E61" s="3">
+        <v>41.6</v>
+      </c>
+      <c r="F61" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C62" s="2">
         <v>936.3</v>
@@ -2191,19 +2195,19 @@
       <c r="D62" s="2">
         <v>2226.6</v>
       </c>
-      <c r="E62" s="2">
-        <v>0.09</v>
-      </c>
-      <c r="F62" s="2">
-        <v>8.4000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E62" s="3">
+        <v>9</v>
+      </c>
+      <c r="F62" s="3">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C63" s="2">
         <v>2930.7</v>
@@ -2211,19 +2215,19 @@
       <c r="D63" s="2">
         <v>6260.1</v>
       </c>
-      <c r="E63" s="2">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="F63" s="2">
-        <v>0.126</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E63" s="3">
+        <v>13.200000000000001</v>
+      </c>
+      <c r="F63" s="3">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C64" s="2">
         <v>907</v>
@@ -2231,70 +2235,70 @@
       <c r="D64" s="2">
         <v>2295.3000000000002</v>
       </c>
-      <c r="E64" s="2">
-        <v>0.188</v>
-      </c>
-      <c r="F64" s="2">
-        <v>6.9000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E64" s="3">
+        <v>18.8</v>
+      </c>
+      <c r="F64" s="3">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D65" s="2">
         <v>1321</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="3">
         <v>0</v>
       </c>
-      <c r="F65" s="2">
-        <v>7.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F65" s="3">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D66" s="2">
         <v>3330.5</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="3">
         <v>0</v>
       </c>
-      <c r="F66" s="2">
-        <v>0.108</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F66" s="3">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D67" s="2">
         <v>1408</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="3">
         <v>0</v>
       </c>
-      <c r="F67" s="2">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F67" s="3">
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C68" s="2">
         <v>745.1</v>
@@ -2302,19 +2306,19 @@
       <c r="D68" s="2">
         <v>8664.4</v>
       </c>
-      <c r="E68" s="2">
-        <v>-0.05</v>
-      </c>
-      <c r="F68" s="2">
-        <v>-3.5999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E68" s="3">
+        <v>-5</v>
+      </c>
+      <c r="F68" s="3">
+        <v>-3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C69" s="2">
         <v>1770.5</v>
@@ -2322,19 +2326,19 @@
       <c r="D69" s="2">
         <v>22247.3</v>
       </c>
-      <c r="E69" s="2">
-        <v>-9.9000000000000005E-2</v>
-      </c>
-      <c r="F69" s="2">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E69" s="3">
+        <v>-9.9</v>
+      </c>
+      <c r="F69" s="3">
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C70" s="2">
         <v>836.4</v>
@@ -2342,19 +2346,19 @@
       <c r="D70" s="2">
         <v>9106.2999999999993</v>
       </c>
-      <c r="E70" s="2">
-        <v>5.4000000000000013E-2</v>
-      </c>
-      <c r="F70" s="2">
-        <v>4.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E70" s="3">
+        <v>5.4000000000000012</v>
+      </c>
+      <c r="F70" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C71" s="2">
         <v>758.6</v>
@@ -2362,19 +2366,19 @@
       <c r="D71" s="2">
         <v>7917.5</v>
       </c>
-      <c r="E71" s="2">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="F71" s="2">
-        <v>-3.7000000000000012E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E71" s="3">
+        <v>-7.0000000000000009</v>
+      </c>
+      <c r="F71" s="3">
+        <v>-3.7000000000000011</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C72" s="2">
         <v>1513.2</v>
@@ -2382,19 +2386,19 @@
       <c r="D72" s="2">
         <v>20449.400000000001</v>
       </c>
-      <c r="E72" s="2">
-        <v>-0.107</v>
-      </c>
-      <c r="F72" s="2">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E72" s="3">
+        <v>-10.7</v>
+      </c>
+      <c r="F72" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C73" s="2">
         <v>953.1</v>
@@ -2402,19 +2406,19 @@
       <c r="D73" s="2">
         <v>8271.1</v>
       </c>
-      <c r="E73" s="2">
-        <v>0.129</v>
-      </c>
-      <c r="F73" s="2">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E73" s="3">
+        <v>12.9</v>
+      </c>
+      <c r="F73" s="3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C74" s="2">
         <v>690</v>
@@ -2422,19 +2426,19 @@
       <c r="D74" s="2">
         <v>7159</v>
       </c>
-      <c r="E74" s="2">
-        <v>-9.6999999999999989E-2</v>
-      </c>
-      <c r="F74" s="2">
-        <v>-3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E74" s="3">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="F74" s="3">
+        <v>-3.3000000000000003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C75" s="2">
         <v>1443.2</v>
@@ -2442,19 +2446,19 @@
       <c r="D75" s="2">
         <v>18959.5</v>
       </c>
-      <c r="E75" s="2">
-        <v>-3.3000000000000002E-2</v>
-      </c>
-      <c r="F75" s="2">
-        <v>3.2000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E75" s="3">
+        <v>-3.3000000000000003</v>
+      </c>
+      <c r="F75" s="3">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C76" s="2">
         <v>880.6</v>
@@ -2462,19 +2466,19 @@
       <c r="D76" s="2">
         <v>7318</v>
       </c>
-      <c r="E76" s="2">
-        <v>0.129</v>
-      </c>
-      <c r="F76" s="2">
-        <v>3.7000000000000012E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E76" s="3">
+        <v>12.9</v>
+      </c>
+      <c r="F76" s="3">
+        <v>3.7000000000000011</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C77" s="2">
         <v>799.5</v>
@@ -2482,19 +2486,19 @@
       <c r="D77" s="2">
         <v>6433.1</v>
       </c>
-      <c r="E77" s="2">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="F77" s="2">
-        <v>-3.1E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E77" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F77" s="3">
+        <v>-3.1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C78" s="2">
         <v>1858</v>
@@ -2502,19 +2506,19 @@
       <c r="D78" s="2">
         <v>17491.5</v>
       </c>
-      <c r="E78" s="2">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="F78" s="2">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E78" s="3">
+        <v>20.9</v>
+      </c>
+      <c r="F78" s="3">
+        <v>3.5000000000000004</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C79" s="2">
         <v>870.3</v>
@@ -2522,19 +2526,19 @@
       <c r="D79" s="2">
         <v>6424.9</v>
       </c>
-      <c r="E79" s="2">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="F79" s="2">
-        <v>2.3E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E79" s="3">
+        <v>24.4</v>
+      </c>
+      <c r="F79" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C80" s="2">
         <v>702.3</v>
@@ -2542,19 +2546,19 @@
       <c r="D80" s="2">
         <v>5591</v>
       </c>
-      <c r="E80" s="2">
-        <v>-5.5E-2</v>
-      </c>
-      <c r="F80" s="2">
-        <v>-5.7000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E80" s="3">
+        <v>-5.5</v>
+      </c>
+      <c r="F80" s="3">
+        <v>-5.7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C81" s="2">
         <v>1607.2</v>
@@ -2562,19 +2566,19 @@
       <c r="D81" s="2">
         <v>15722.1</v>
       </c>
-      <c r="E81" s="2">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="F81" s="2">
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E81" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="F81" s="3">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C82" s="2">
         <v>690.5</v>
@@ -2582,19 +2586,19 @@
       <c r="D82" s="2">
         <v>5460.5</v>
       </c>
-      <c r="E82" s="2">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="F82" s="2">
-        <v>-2.3E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E82" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="F82" s="3">
+        <v>-2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C83" s="2">
         <v>728.8</v>
@@ -2602,19 +2606,19 @@
       <c r="D83" s="2">
         <v>4881.7</v>
       </c>
-      <c r="E83" s="2">
-        <v>-2.1000000000000001E-2</v>
-      </c>
-      <c r="F83" s="2">
-        <v>-5.8999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E83" s="3">
+        <v>-2.1</v>
+      </c>
+      <c r="F83" s="3">
+        <v>-5.8999999999999995</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C84" s="2">
         <v>1829.9</v>
@@ -2622,19 +2626,19 @@
       <c r="D84" s="2">
         <v>14078.8</v>
       </c>
-      <c r="E84" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="F84" s="2">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E84" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="F84" s="3">
+        <v>1.0999999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C85" s="2">
         <v>657.7</v>
@@ -2642,19 +2646,19 @@
       <c r="D85" s="2">
         <v>4769</v>
       </c>
-      <c r="E85" s="2">
-        <v>5.5999999999999987E-2</v>
-      </c>
-      <c r="F85" s="2">
-        <v>-2.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E85" s="3">
+        <v>5.5999999999999988</v>
+      </c>
+      <c r="F85" s="3">
+        <v>-2.9000000000000004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C86" s="2">
         <v>734.4</v>
@@ -2662,19 +2666,19 @@
       <c r="D86" s="2">
         <v>4164.2</v>
       </c>
-      <c r="E86" s="2">
-        <v>-8.0000000000000002E-3</v>
-      </c>
-      <c r="F86" s="2">
-        <v>-6.2E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E86" s="3">
+        <v>-0.8</v>
+      </c>
+      <c r="F86" s="3">
+        <v>-6.2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C87" s="2">
         <v>2221.4</v>
@@ -2682,19 +2686,19 @@
       <c r="D87" s="2">
         <v>12248.9</v>
       </c>
-      <c r="E87" s="2">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="F87" s="2">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E87" s="3">
+        <v>4.3999999999999995</v>
+      </c>
+      <c r="F87" s="3">
+        <v>1.0999999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C88" s="2">
         <v>660.6</v>
@@ -2702,19 +2706,19 @@
       <c r="D88" s="2">
         <v>4113.3</v>
       </c>
-      <c r="E88" s="2">
-        <v>-6.9999999999999993E-3</v>
-      </c>
-      <c r="F88" s="2">
-        <v>-4.0999999999999988E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E88" s="3">
+        <v>-0.7</v>
+      </c>
+      <c r="F88" s="3">
+        <v>-4.0999999999999988</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C89" s="2">
         <v>667</v>
@@ -2722,19 +2726,19 @@
       <c r="D89" s="2">
         <v>3401</v>
       </c>
-      <c r="E89" s="2">
-        <v>-0.115</v>
-      </c>
-      <c r="F89" s="2">
-        <v>-8.1000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E89" s="3">
+        <v>-11.5</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-8.1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C90" s="2">
         <v>2182.9</v>
@@ -2742,19 +2746,19 @@
       <c r="D90" s="2">
         <v>9933.5</v>
       </c>
-      <c r="E90" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="F90" s="2">
-        <v>-8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E90" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F90" s="3">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C91" s="2">
         <v>679.5</v>
@@ -2762,19 +2766,19 @@
       <c r="D91" s="2">
         <v>3471.7</v>
       </c>
-      <c r="E91" s="2">
-        <v>-3.3000000000000002E-2</v>
-      </c>
-      <c r="F91" s="2">
-        <v>-4.0999999999999988E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E91" s="3">
+        <v>-3.3000000000000003</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-4.0999999999999988</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C92" s="2">
         <v>652.4</v>
@@ -2782,19 +2786,19 @@
       <c r="D92" s="2">
         <v>2724.9</v>
       </c>
-      <c r="E92" s="2">
-        <v>-0.158</v>
-      </c>
-      <c r="F92" s="2">
-        <v>-7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E92" s="3">
+        <v>-15.8</v>
+      </c>
+      <c r="F92" s="3">
+        <v>-7.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C93" s="2">
         <v>2279.1999999999998</v>
@@ -2802,19 +2806,19 @@
       <c r="D93" s="2">
         <v>7742.9</v>
       </c>
-      <c r="E93" s="2">
-        <v>-0.04</v>
-      </c>
-      <c r="F93" s="2">
-        <v>-6.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E93" s="3">
+        <v>-4</v>
+      </c>
+      <c r="F93" s="3">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C94" s="2">
         <v>649.9</v>
@@ -2822,19 +2826,19 @@
       <c r="D94" s="2">
         <v>2792.4</v>
       </c>
-      <c r="E94" s="2">
-        <v>-0.158</v>
-      </c>
-      <c r="F94" s="2">
-        <v>-4.2999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E94" s="3">
+        <v>-15.8</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-4.3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C95" s="2">
         <v>867.1</v>
@@ -2842,19 +2846,19 @@
       <c r="D95" s="2">
         <v>2065.6999999999998</v>
       </c>
-      <c r="E95" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="F95" s="2">
-        <v>-5.8999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E95" s="3">
+        <v>-10</v>
+      </c>
+      <c r="F95" s="3">
+        <v>-5.8999999999999995</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C96" s="2">
         <v>2552.5</v>
@@ -2862,19 +2866,19 @@
       <c r="D96" s="2">
         <v>5446.7</v>
       </c>
-      <c r="E96" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F96" s="2">
-        <v>6.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E96" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F96" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C97" s="2">
         <v>761</v>
@@ -2882,70 +2886,70 @@
       <c r="D97" s="2">
         <v>2141.8000000000002</v>
       </c>
-      <c r="E97" s="2">
-        <v>-8.4000000000000005E-2</v>
-      </c>
-      <c r="F97" s="2">
-        <v>-1E-3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E97" s="3">
+        <v>-8.4</v>
+      </c>
+      <c r="F97" s="3">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D98" s="2">
         <v>1194</v>
       </c>
-      <c r="E98" s="2">
+      <c r="E98" s="3">
         <v>0</v>
       </c>
-      <c r="F98" s="2">
-        <v>-2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F98" s="3">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D99" s="2">
         <v>2925.9</v>
       </c>
-      <c r="E99" s="2">
+      <c r="E99" s="3">
         <v>0</v>
       </c>
-      <c r="F99" s="2">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F99" s="3">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D100" s="2">
         <v>1380.3</v>
       </c>
-      <c r="E100" s="2">
+      <c r="E100" s="3">
         <v>0</v>
       </c>
-      <c r="F100" s="2">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F100" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C101" s="2">
         <v>757.8</v>
@@ -2953,19 +2957,19 @@
       <c r="D101" s="2">
         <v>8992.1</v>
       </c>
-      <c r="E101" s="2">
-        <v>-5.1999999999999998E-2</v>
-      </c>
-      <c r="F101" s="2">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E101" s="3">
+        <v>-5.2</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C102" s="2">
         <v>1963.5</v>
@@ -2973,19 +2977,19 @@
       <c r="D102" s="2">
         <v>21835.7</v>
       </c>
-      <c r="E102" s="2">
-        <v>-1.7000000000000001E-2</v>
-      </c>
-      <c r="F102" s="2">
-        <v>9.4E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E102" s="3">
+        <v>-1.7000000000000002</v>
+      </c>
+      <c r="F102" s="3">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C103" s="2">
         <v>785.6</v>
@@ -2993,19 +2997,19 @@
       <c r="D103" s="2">
         <v>8618.5</v>
       </c>
-      <c r="E103" s="2">
-        <v>-2.7E-2</v>
-      </c>
-      <c r="F103" s="2">
-        <v>9.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E103" s="3">
+        <v>-2.7</v>
+      </c>
+      <c r="F103" s="3">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C104" s="2">
         <v>808.5</v>
@@ -3013,19 +3017,19 @@
       <c r="D104" s="2">
         <v>8253.2999999999993</v>
       </c>
-      <c r="E104" s="2">
-        <v>-0.10299999999999999</v>
-      </c>
-      <c r="F104" s="2">
-        <v>-2E-3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E104" s="3">
+        <v>-10.299999999999999</v>
+      </c>
+      <c r="F104" s="3">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C105" s="2">
         <v>1662.8</v>
@@ -3033,19 +3037,19 @@
       <c r="D105" s="2">
         <v>19741.400000000001</v>
       </c>
-      <c r="E105" s="2">
-        <v>3.7000000000000012E-2</v>
-      </c>
-      <c r="F105" s="2">
-        <v>0.114</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E105" s="3">
+        <v>3.7000000000000011</v>
+      </c>
+      <c r="F105" s="3">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C106" s="2">
         <v>843.8</v>
@@ -3053,19 +3057,19 @@
       <c r="D106" s="2">
         <v>7833</v>
       </c>
-      <c r="E106" s="2">
-        <v>-1.4999999999999999E-2</v>
-      </c>
-      <c r="F106" s="2">
-        <v>0.111</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E106" s="3">
+        <v>-1.5</v>
+      </c>
+      <c r="F106" s="3">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C107" s="2">
         <v>763.6</v>
@@ -3073,19 +3077,19 @@
       <c r="D107" s="2">
         <v>7412.2</v>
       </c>
-      <c r="E107" s="2">
-        <v>-0.13500000000000001</v>
-      </c>
-      <c r="F107" s="2">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E107" s="3">
+        <v>-13.5</v>
+      </c>
+      <c r="F107" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C108" s="2">
         <v>1454.9</v>
@@ -3093,19 +3097,19 @@
       <c r="D108" s="2">
         <v>18092.400000000001</v>
       </c>
-      <c r="E108" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="F108" s="2">
-        <v>0.123</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E108" s="3">
+        <v>6</v>
+      </c>
+      <c r="F108" s="3">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C109" s="2">
         <v>766.8</v>
@@ -3113,19 +3117,19 @@
       <c r="D109" s="2">
         <v>6968.5</v>
       </c>
-      <c r="E109" s="2">
-        <v>-8.6999999999999994E-2</v>
-      </c>
-      <c r="F109" s="2">
-        <v>0.124</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E109" s="3">
+        <v>-8.6999999999999993</v>
+      </c>
+      <c r="F109" s="3">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C110" s="2">
         <v>763.8</v>
@@ -3133,19 +3137,19 @@
       <c r="D110" s="2">
         <v>6620.1</v>
       </c>
-      <c r="E110" s="2">
-        <v>-0.185</v>
-      </c>
-      <c r="F110" s="2">
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E110" s="3">
+        <v>-18.5</v>
+      </c>
+      <c r="F110" s="3">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C111" s="2">
         <v>1508.1</v>
@@ -3153,19 +3157,19 @@
       <c r="D111" s="2">
         <v>16659</v>
       </c>
-      <c r="E111" s="2">
-        <v>-6.9000000000000006E-2</v>
-      </c>
-      <c r="F111" s="2">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E111" s="3">
+        <v>-6.9</v>
+      </c>
+      <c r="F111" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C112" s="2">
         <v>699.5</v>
@@ -3173,19 +3177,19 @@
       <c r="D112" s="2">
         <v>6282.9</v>
       </c>
-      <c r="E112" s="2">
-        <v>-0.122</v>
-      </c>
-      <c r="F112" s="2">
-        <v>0.17299999999999999</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E112" s="3">
+        <v>-12.2</v>
+      </c>
+      <c r="F112" s="3">
+        <v>17.299999999999997</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C113" s="2">
         <v>736.4</v>
@@ -3193,19 +3197,19 @@
       <c r="D113" s="2">
         <v>5913.5</v>
       </c>
-      <c r="E113" s="2">
-        <v>-0.19</v>
-      </c>
-      <c r="F113" s="2">
-        <v>6.7000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E113" s="3">
+        <v>-19</v>
+      </c>
+      <c r="F113" s="3">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C114" s="2">
         <v>1491.2</v>
@@ -3213,19 +3217,19 @@
       <c r="D114" s="2">
         <v>15219.8</v>
       </c>
-      <c r="E114" s="2">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="F114" s="2">
-        <v>0.156</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E114" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="F114" s="3">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C115" s="2">
         <v>673.8</v>
@@ -3233,19 +3237,19 @@
       <c r="D115" s="2">
         <v>5591.5</v>
       </c>
-      <c r="E115" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="F115" s="2">
-        <v>0.22600000000000001</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E115" s="3">
+        <v>-10</v>
+      </c>
+      <c r="F115" s="3">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C116" s="2">
         <v>741</v>
@@ -3253,19 +3257,19 @@
       <c r="D116" s="2">
         <v>5177.3</v>
       </c>
-      <c r="E116" s="2">
-        <v>-0.183</v>
-      </c>
-      <c r="F116" s="2">
-        <v>0.113</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E116" s="3">
+        <v>-18.3</v>
+      </c>
+      <c r="F116" s="3">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C117" s="2">
         <v>1801.8</v>
@@ -3273,19 +3277,19 @@
       <c r="D117" s="2">
         <v>13768.6</v>
       </c>
-      <c r="E117" s="2">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="F117" s="2">
-        <v>0.17299999999999999</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E117" s="3">
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="F117" s="3">
+        <v>17.299999999999997</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C118" s="2">
         <v>623.79999999999995</v>
@@ -3293,19 +3297,19 @@
       <c r="D118" s="2">
         <v>4917.7</v>
       </c>
-      <c r="E118" s="2">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="F118" s="2">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E118" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="F118" s="3">
+        <v>28.999999999999996</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C119" s="2">
         <v>742.5</v>
@@ -3313,19 +3317,19 @@
       <c r="D119" s="2">
         <v>4434.6000000000004</v>
       </c>
-      <c r="E119" s="2">
-        <v>-0.154</v>
-      </c>
-      <c r="F119" s="2">
-        <v>0.188</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E119" s="3">
+        <v>-15.4</v>
+      </c>
+      <c r="F119" s="3">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C120" s="2">
         <v>2167</v>
@@ -3333,19 +3337,19 @@
       <c r="D120" s="2">
         <v>12328.3</v>
       </c>
-      <c r="E120" s="2">
-        <v>-0.121</v>
-      </c>
-      <c r="F120" s="2">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E120" s="3">
+        <v>-12.1</v>
+      </c>
+      <c r="F120" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C121" s="2">
         <v>664</v>
@@ -3353,19 +3357,19 @@
       <c r="D121" s="2">
         <v>4293.8999999999996</v>
       </c>
-      <c r="E121" s="2">
-        <v>0.13</v>
-      </c>
-      <c r="F121" s="2">
-        <v>0.33500000000000002</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E121" s="3">
+        <v>13</v>
+      </c>
+      <c r="F121" s="3">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C122" s="2">
         <v>748.7</v>
@@ -3373,19 +3377,19 @@
       <c r="D122" s="2">
         <v>3711.6</v>
       </c>
-      <c r="E122" s="2">
-        <v>-4.2000000000000003E-2</v>
-      </c>
-      <c r="F122" s="2">
-        <v>0.29199999999999998</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E122" s="3">
+        <v>-4.2</v>
+      </c>
+      <c r="F122" s="3">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C123" s="2">
         <v>2205.8000000000002</v>
@@ -3393,19 +3397,19 @@
       <c r="D123" s="2">
         <v>10175.9</v>
       </c>
-      <c r="E123" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F123" s="2">
-        <v>0.33400000000000002</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E123" s="3">
+        <v>14.000000000000002</v>
+      </c>
+      <c r="F123" s="3">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C124" s="2">
         <v>703.2</v>
@@ -3413,19 +3417,19 @@
       <c r="D124" s="2">
         <v>3618.4</v>
       </c>
-      <c r="E124" s="2">
-        <v>0.121</v>
-      </c>
-      <c r="F124" s="2">
-        <v>0.373</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E124" s="3">
+        <v>12.1</v>
+      </c>
+      <c r="F124" s="3">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C125" s="2">
         <v>772.9</v>
@@ -3433,19 +3437,19 @@
       <c r="D125" s="2">
         <v>2944.9</v>
       </c>
-      <c r="E125" s="2">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="F125" s="2">
-        <v>0.40899999999999997</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E125" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="F125" s="3">
+        <v>40.9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C126" s="2">
         <v>2421</v>
@@ -3453,19 +3457,19 @@
       <c r="D126" s="2">
         <v>7939.6</v>
       </c>
-      <c r="E126" s="2">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="F126" s="2">
-        <v>0.39500000000000002</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E126" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="F126" s="3">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C127" s="2">
         <v>772</v>
@@ -3473,19 +3477,19 @@
       <c r="D127" s="2">
         <v>2916.7</v>
       </c>
-      <c r="E127" s="2">
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="F127" s="2">
-        <v>0.44800000000000001</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E127" s="3">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="F127" s="3">
+        <v>44.800000000000004</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C128" s="2">
         <v>946.6</v>
@@ -3493,19 +3497,19 @@
       <c r="D128" s="2">
         <v>2157.8000000000002</v>
       </c>
-      <c r="E128" s="2">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="F128" s="2">
-        <v>0.54600000000000004</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E128" s="3">
+        <v>28.9</v>
+      </c>
+      <c r="F128" s="3">
+        <v>54.6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C129" s="2">
         <v>2591.6</v>
@@ -3513,19 +3517,19 @@
       <c r="D129" s="2">
         <v>5595.3</v>
       </c>
-      <c r="E129" s="2">
-        <v>0.32</v>
-      </c>
-      <c r="F129" s="2">
-        <v>0.498</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E129" s="3">
+        <v>32</v>
+      </c>
+      <c r="F129" s="3">
+        <v>49.8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C130" s="2">
         <v>831.2</v>
@@ -3533,70 +3537,70 @@
       <c r="D130" s="2">
         <v>2144.6999999999998</v>
       </c>
-      <c r="E130" s="2">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="F130" s="2">
-        <v>0.50700000000000001</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E130" s="3">
+        <v>29.4</v>
+      </c>
+      <c r="F130" s="3">
+        <v>50.7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D131" s="2">
         <v>1210.7</v>
       </c>
-      <c r="E131" s="2">
+      <c r="E131" s="3">
         <v>0</v>
       </c>
-      <c r="F131" s="2">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F131" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D132" s="2">
         <v>2940.4</v>
       </c>
-      <c r="E132" s="2">
+      <c r="E132" s="3">
         <v>0</v>
       </c>
-      <c r="F132" s="2">
-        <v>0.70799999999999996</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F132" s="3">
+        <v>70.8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D133" s="2">
         <v>1313.5</v>
       </c>
-      <c r="E133" s="2">
+      <c r="E133" s="3">
         <v>0</v>
       </c>
-      <c r="F133" s="2">
-        <v>0.68200000000000005</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F133" s="3">
+        <v>68.2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C134" s="2">
         <v>796.4</v>
@@ -3604,19 +3608,19 @@
       <c r="D134" s="2">
         <v>9014.7000000000007</v>
       </c>
-      <c r="E134" s="2">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="F134" s="2">
-        <v>8.4000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E134" s="3">
+        <v>8.1</v>
+      </c>
+      <c r="F134" s="3">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C135" s="2">
         <v>2152.5</v>
@@ -3624,19 +3628,19 @@
       <c r="D135" s="2">
         <v>21064.6</v>
       </c>
-      <c r="E135" s="2">
-        <v>-2.9000000000000001E-2</v>
-      </c>
-      <c r="F135" s="2">
-        <v>-8.3000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E135" s="3">
+        <v>-2.9000000000000004</v>
+      </c>
+      <c r="F135" s="3">
+        <v>-8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C136" s="2">
         <v>806.4</v>
@@ -3644,19 +3648,19 @@
       <c r="D136" s="2">
         <v>8041.9</v>
       </c>
-      <c r="E136" s="2">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="F136" s="2">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E136" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F136" s="3">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C137" s="2">
         <v>898.9</v>
@@ -3664,19 +3668,19 @@
       <c r="D137" s="2">
         <v>8260.5</v>
       </c>
-      <c r="E137" s="2">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="F137" s="2">
-        <v>6.3E-2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E137" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="F137" s="3">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C138" s="2">
         <v>1771.6</v>
@@ -3684,19 +3688,19 @@
       <c r="D138" s="2">
         <v>18929.2</v>
       </c>
-      <c r="E138" s="2">
-        <v>5.5E-2</v>
-      </c>
-      <c r="F138" s="2">
-        <v>-8.8000000000000009E-2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E138" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="F138" s="3">
+        <v>-8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C139" s="2">
         <v>856.6</v>
@@ -3704,19 +3708,19 @@
       <c r="D139" s="2">
         <v>7228.5</v>
       </c>
-      <c r="E139" s="2">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="F139" s="2">
-        <v>3.5999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E139" s="3">
+        <v>13.100000000000001</v>
+      </c>
+      <c r="F139" s="3">
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C140" s="2">
         <v>879.6</v>
@@ -3724,19 +3728,19 @@
       <c r="D140" s="2">
         <v>7381.7</v>
       </c>
-      <c r="E140" s="2">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="F140" s="2">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E140" s="3">
+        <v>25.8</v>
+      </c>
+      <c r="F140" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C141" s="2">
         <v>1448.9</v>
@@ -3744,19 +3748,19 @@
       <c r="D141" s="2">
         <v>17046.599999999999</v>
       </c>
-      <c r="E141" s="2">
-        <v>2E-3</v>
-      </c>
-      <c r="F141" s="2">
-        <v>-0.107</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E141" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F141" s="3">
+        <v>-10.7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C142" s="2">
         <v>840.6</v>
@@ -3764,19 +3768,19 @@
       <c r="D142" s="2">
         <v>6373.8</v>
       </c>
-      <c r="E142" s="2">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="F142" s="2">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E142" s="3">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F142" s="3">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C143" s="2">
         <v>935.8</v>
@@ -3784,19 +3788,19 @@
       <c r="D143" s="2">
         <v>6476.1</v>
       </c>
-      <c r="E143" s="2">
-        <v>0.28199999999999997</v>
-      </c>
-      <c r="F143" s="2">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E143" s="3">
+        <v>28.199999999999996</v>
+      </c>
+      <c r="F143" s="3">
+        <v>1.7000000000000002</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C144" s="2">
         <v>1714.1</v>
@@ -3804,19 +3808,19 @@
       <c r="D144" s="2">
         <v>15602.9</v>
       </c>
-      <c r="E144" s="2">
-        <v>-8.5000000000000006E-2</v>
-      </c>
-      <c r="F144" s="2">
-        <v>-0.11700000000000001</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E144" s="3">
+        <v>-8.5</v>
+      </c>
+      <c r="F144" s="3">
+        <v>-11.700000000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C145" s="2">
         <v>799.2</v>
@@ -3824,19 +3828,19 @@
       <c r="D145" s="2">
         <v>5533.1</v>
       </c>
-      <c r="E145" s="2">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="F145" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E145" s="3">
+        <v>13.3</v>
+      </c>
+      <c r="F145" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C146" s="2">
         <v>908.5</v>
@@ -3844,19 +3848,19 @@
       <c r="D146" s="2">
         <v>5537.2</v>
       </c>
-      <c r="E146" s="2">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="F146" s="2">
-        <v>-1.9E-2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E146" s="3">
+        <v>28.499999999999996</v>
+      </c>
+      <c r="F146" s="3">
+        <v>-1.9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C147" s="2">
         <v>1533</v>
@@ -3864,19 +3868,19 @@
       <c r="D147" s="2">
         <v>13887.9</v>
       </c>
-      <c r="E147" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F147" s="2">
-        <v>-0.122</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E147" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F147" s="3">
+        <v>-12.2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C148" s="2">
         <v>749.2</v>
@@ -3884,19 +3888,19 @@
       <c r="D148" s="2">
         <v>4733.8999999999996</v>
       </c>
-      <c r="E148" s="2">
-        <v>9.3000000000000013E-2</v>
-      </c>
-      <c r="F148" s="2">
-        <v>-1.4E-2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E148" s="3">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F148" s="3">
+        <v>-1.4000000000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C149" s="2">
         <v>914.7</v>
@@ -3904,19 +3908,19 @@
       <c r="D149" s="2">
         <v>4691.3</v>
       </c>
-      <c r="E149" s="2">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="F149" s="2">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E149" s="3">
+        <v>29.7</v>
+      </c>
+      <c r="F149" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C150" s="2">
         <v>1851.2</v>
@@ -3924,19 +3928,19 @@
       <c r="D150" s="2">
         <v>12353</v>
       </c>
-      <c r="E150" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="F150" s="2">
-        <v>-0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E150" s="3">
+        <v>6</v>
+      </c>
+      <c r="F150" s="3">
+        <v>-14.000000000000002</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C151" s="2">
         <v>686.2</v>
@@ -3944,19 +3948,19 @@
       <c r="D151" s="2">
         <v>3984.9</v>
       </c>
-      <c r="E151" s="2">
-        <v>0.373</v>
-      </c>
-      <c r="F151" s="2">
-        <v>-2.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E151" s="3">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="F151" s="3">
+        <v>-2.6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C152" s="2">
         <v>887.4</v>
@@ -3964,19 +3968,19 @@
       <c r="D152" s="2">
         <v>3759.3</v>
       </c>
-      <c r="E152" s="2">
-        <v>0.217</v>
-      </c>
-      <c r="F152" s="2">
-        <v>-6.9000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E152" s="3">
+        <v>21.7</v>
+      </c>
+      <c r="F152" s="3">
+        <v>-6.9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C153" s="2">
         <v>2490.3000000000002</v>
@@ -3984,19 +3988,19 @@
       <c r="D153" s="2">
         <v>10414.9</v>
       </c>
-      <c r="E153" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="F153" s="2">
-        <v>-0.16400000000000001</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E153" s="3">
+        <v>12</v>
+      </c>
+      <c r="F153" s="3">
+        <v>-16.400000000000002</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C154" s="2">
         <v>655.5</v>
@@ -4004,19 +4008,19 @@
       <c r="D154" s="2">
         <v>3260.2</v>
       </c>
-      <c r="E154" s="2">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="F154" s="2">
-        <v>-7.2000000000000008E-2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E154" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="F154" s="3">
+        <v>-7.2000000000000011</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C155" s="2">
         <v>776.7</v>
@@ -4024,19 +4028,19 @@
       <c r="D155" s="2">
         <v>2845.3</v>
       </c>
-      <c r="E155" s="2">
-        <v>7.400000000000001E-2</v>
-      </c>
-      <c r="F155" s="2">
-        <v>-0.127</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E155" s="3">
+        <v>7.4000000000000012</v>
+      </c>
+      <c r="F155" s="3">
+        <v>-12.7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C156" s="2">
         <v>1942.8</v>
@@ -4044,19 +4048,19 @@
       <c r="D156" s="2">
         <v>7798.8</v>
       </c>
-      <c r="E156" s="2">
-        <v>-0.14699999999999999</v>
-      </c>
-      <c r="F156" s="2">
-        <v>-0.23100000000000001</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E156" s="3">
+        <v>-14.7</v>
+      </c>
+      <c r="F156" s="3">
+        <v>-23.1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C157" s="2">
         <v>608.29999999999995</v>
@@ -4064,19 +4068,19 @@
       <c r="D157" s="2">
         <v>2583.4</v>
       </c>
-      <c r="E157" s="2">
-        <v>-8.199999999999999E-2</v>
-      </c>
-      <c r="F157" s="2">
-        <v>-0.106</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E157" s="3">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="F157" s="3">
+        <v>-10.6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C158" s="2">
         <v>701.5</v>
@@ -4084,19 +4088,19 @@
       <c r="D158" s="2">
         <v>2053.3000000000002</v>
       </c>
-      <c r="E158" s="2">
-        <v>-3.3000000000000002E-2</v>
-      </c>
-      <c r="F158" s="2">
-        <v>-0.16500000000000001</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E158" s="3">
+        <v>-3.3000000000000003</v>
+      </c>
+      <c r="F158" s="3">
+        <v>-16.5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C159" s="2">
         <v>1915.9</v>
@@ -4104,19 +4108,19 @@
       <c r="D159" s="2">
         <v>5581.5</v>
       </c>
-      <c r="E159" s="2">
-        <v>-0.17299999999999999</v>
-      </c>
-      <c r="F159" s="2">
-        <v>-0.248</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E159" s="3">
+        <v>-17.299999999999997</v>
+      </c>
+      <c r="F159" s="3">
+        <v>-24.8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C160" s="2">
         <v>555.70000000000005</v>
@@ -4124,19 +4128,19 @@
       <c r="D160" s="2">
         <v>1979.9</v>
       </c>
-      <c r="E160" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="F160" s="2">
-        <v>-0.111</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E160" s="3">
+        <v>-10</v>
+      </c>
+      <c r="F160" s="3">
+        <v>-11.1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C161" s="2">
         <v>726.6</v>
@@ -4144,19 +4148,19 @@
       <c r="D161" s="2">
         <v>1373.1</v>
       </c>
-      <c r="E161" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="F161" s="2">
-        <v>-0.19800000000000001</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E161" s="3">
+        <v>4</v>
+      </c>
+      <c r="F161" s="3">
+        <v>-19.8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C162" s="2">
         <v>1940.3</v>
@@ -4164,19 +4168,19 @@
       <c r="D162" s="2">
         <v>3688.1</v>
       </c>
-      <c r="E162" s="2">
-        <v>-0.188</v>
-      </c>
-      <c r="F162" s="2">
-        <v>-0.27900000000000003</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E162" s="3">
+        <v>-18.8</v>
+      </c>
+      <c r="F162" s="3">
+        <v>-27.900000000000002</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C163" s="2">
         <v>640</v>
@@ -4184,70 +4188,70 @@
       <c r="D163" s="2">
         <v>1416.2</v>
       </c>
-      <c r="E163" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F163" s="2">
-        <v>-0.11899999999999999</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E163" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F163" s="3">
+        <v>-11.899999999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D164" s="2">
         <v>667</v>
       </c>
-      <c r="E164" s="2">
+      <c r="E164" s="3">
         <v>0</v>
       </c>
-      <c r="F164" s="2">
-        <v>-0.374</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F164" s="3">
+        <v>-37.4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D165" s="2">
         <v>1628.5</v>
       </c>
-      <c r="E165" s="2">
+      <c r="E165" s="3">
         <v>0</v>
       </c>
-      <c r="F165" s="2">
-        <v>-0.40200000000000002</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F165" s="3">
+        <v>-40.200000000000003</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D166" s="2">
         <v>775.7</v>
       </c>
-      <c r="E166" s="2">
+      <c r="E166" s="3">
         <v>0</v>
       </c>
-      <c r="F166" s="2">
-        <v>-0.20200000000000001</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F166" s="3">
+        <v>-20.200000000000003</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C167" s="2">
         <v>690.2</v>
@@ -4255,19 +4259,19 @@
       <c r="D167" s="2">
         <v>7904.3</v>
       </c>
-      <c r="E167" s="2">
-        <v>0.219</v>
-      </c>
-      <c r="F167" s="2">
-        <v>8.1000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E167" s="3">
+        <v>21.9</v>
+      </c>
+      <c r="F167" s="3">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C168" s="2">
         <v>2034.9</v>
@@ -4275,19 +4279,19 @@
       <c r="D168" s="2">
         <v>21866.2</v>
       </c>
-      <c r="E168" s="2">
-        <v>0.109</v>
-      </c>
-      <c r="F168" s="2">
-        <v>6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E168" s="3">
+        <v>10.9</v>
+      </c>
+      <c r="F168" s="3">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C169" s="2">
         <v>726.5</v>
@@ -4295,19 +4299,19 @@
       <c r="D169" s="2">
         <v>7433</v>
       </c>
-      <c r="E169" s="2">
-        <v>9.6999999999999989E-2</v>
-      </c>
-      <c r="F169" s="2">
-        <v>9.8000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E169" s="3">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F169" s="3">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C170" s="2">
         <v>722.2</v>
@@ -4315,19 +4319,19 @@
       <c r="D170" s="2">
         <v>7657.4</v>
       </c>
-      <c r="E170" s="2">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="F170" s="2">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E170" s="3">
+        <v>7.7</v>
+      </c>
+      <c r="F170" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C171" s="2">
         <v>1545.5</v>
@@ -4335,19 +4339,19 @@
       <c r="D171" s="2">
         <v>19956.099999999999</v>
       </c>
-      <c r="E171" s="2">
-        <v>1.2E-2</v>
-      </c>
-      <c r="F171" s="2">
-        <v>5.8000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E171" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="F171" s="3">
+        <v>5.8000000000000007</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C172" s="2">
         <v>720.9</v>
@@ -4355,19 +4359,19 @@
       <c r="D172" s="2">
         <v>6710</v>
       </c>
-      <c r="E172" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="F172" s="2">
-        <v>0.10100000000000001</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E172" s="3">
+        <v>20</v>
+      </c>
+      <c r="F172" s="3">
+        <v>10.100000000000001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C173" s="2">
         <v>704.6</v>
@@ -4375,19 +4379,19 @@
       <c r="D173" s="2">
         <v>7110.9</v>
       </c>
-      <c r="E173" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="F173" s="2">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E173" s="3">
+        <v>3</v>
+      </c>
+      <c r="F173" s="3">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C174" s="2">
         <v>1332.2</v>
@@ -4395,19 +4399,19 @@
       <c r="D174" s="2">
         <v>18331.7</v>
       </c>
-      <c r="E174" s="2">
-        <v>-2.1000000000000001E-2</v>
-      </c>
-      <c r="F174" s="2">
-        <v>6.2E-2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E174" s="3">
+        <v>-2.1</v>
+      </c>
+      <c r="F174" s="3">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C175" s="2">
         <v>761.5</v>
@@ -4415,19 +4419,19 @@
       <c r="D175" s="2">
         <v>6341.5</v>
       </c>
-      <c r="E175" s="2">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="F175" s="2">
-        <v>7.5999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E175" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="F175" s="3">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C176" s="2">
         <v>736.7</v>
@@ -4435,19 +4439,19 @@
       <c r="D176" s="2">
         <v>6427.3</v>
       </c>
-      <c r="E176" s="2">
-        <v>3.9E-2</v>
-      </c>
-      <c r="F176" s="2">
-        <v>4.2999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E176" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="F176" s="3">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C177" s="2">
         <v>1783.9</v>
@@ -4455,19 +4459,19 @@
       <c r="D177" s="2">
         <v>17005.400000000001</v>
       </c>
-      <c r="E177" s="2">
-        <v>0.106</v>
-      </c>
-      <c r="F177" s="2">
-        <v>6.4000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E177" s="3">
+        <v>10.6</v>
+      </c>
+      <c r="F177" s="3">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C178" s="2">
         <v>720.5</v>
@@ -4475,19 +4479,19 @@
       <c r="D178" s="2">
         <v>5637.5</v>
       </c>
-      <c r="E178" s="2">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="F178" s="2">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E178" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="F178" s="3">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C179" s="2">
         <v>701.7</v>
@@ -4495,19 +4499,19 @@
       <c r="D179" s="2">
         <v>5736.5</v>
       </c>
-      <c r="E179" s="2">
-        <v>-5.1999999999999998E-2</v>
-      </c>
-      <c r="F179" s="2">
-        <v>2.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E179" s="3">
+        <v>-5.2</v>
+      </c>
+      <c r="F179" s="3">
+        <v>2.8000000000000003</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C180" s="2">
         <v>1433.2</v>
@@ -4515,19 +4519,19 @@
       <c r="D180" s="2">
         <v>15239.5</v>
       </c>
-      <c r="E180" s="2">
-        <v>-2.9000000000000001E-2</v>
-      </c>
-      <c r="F180" s="2">
-        <v>7.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E180" s="3">
+        <v>-2.9000000000000004</v>
+      </c>
+      <c r="F180" s="3">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C181" s="2">
         <v>678.2</v>
@@ -4535,19 +4539,19 @@
       <c r="D181" s="2">
         <v>4917</v>
       </c>
-      <c r="E181" s="2">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="F181" s="2">
-        <v>6.8000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E181" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F181" s="3">
+        <v>6.8000000000000007</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C182" s="2">
         <v>734.2</v>
@@ -4555,19 +4559,19 @@
       <c r="D182" s="2">
         <v>5043.3999999999996</v>
       </c>
-      <c r="E182" s="2">
-        <v>0.09</v>
-      </c>
-      <c r="F182" s="2">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E182" s="3">
+        <v>9</v>
+      </c>
+      <c r="F182" s="3">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C183" s="2">
         <v>1686.1</v>
@@ -4575,19 +4579,19 @@
       <c r="D183" s="2">
         <v>13853.1</v>
       </c>
-      <c r="E183" s="2">
-        <v>-0.03</v>
-      </c>
-      <c r="F183" s="2">
-        <v>8.6999999999999994E-2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E183" s="3">
+        <v>-3</v>
+      </c>
+      <c r="F183" s="3">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C184" s="2">
         <v>491.5</v>
@@ -4595,19 +4599,19 @@
       <c r="D184" s="2">
         <v>4243.7</v>
       </c>
-      <c r="E184" s="2">
-        <v>-7.2999999999999995E-2</v>
-      </c>
-      <c r="F184" s="2">
-        <v>7.2999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E184" s="3">
+        <v>-7.3</v>
+      </c>
+      <c r="F184" s="3">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C185" s="2">
         <v>746.1</v>
@@ -4615,19 +4619,19 @@
       <c r="D185" s="2">
         <v>4250.3999999999996</v>
       </c>
-      <c r="E185" s="2">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="F185" s="2">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E185" s="3">
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="F185" s="3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C186" s="2">
         <v>2133.1</v>
@@ -4635,19 +4639,19 @@
       <c r="D186" s="2">
         <v>11978.8</v>
       </c>
-      <c r="E186" s="2">
-        <v>2.4E-2</v>
-      </c>
-      <c r="F186" s="2">
-        <v>0.10199999999999999</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E186" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="F186" s="3">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C187" s="2">
         <v>650.20000000000005</v>
@@ -4655,19 +4659,19 @@
       <c r="D187" s="2">
         <v>3732.5</v>
       </c>
-      <c r="E187" s="2">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="F187" s="2">
-        <v>9.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E187" s="3">
+        <v>19.8</v>
+      </c>
+      <c r="F187" s="3">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C188" s="2">
         <v>777.8</v>
@@ -4675,19 +4679,19 @@
       <c r="D188" s="2">
         <v>3461.2</v>
       </c>
-      <c r="E188" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="F188" s="2">
-        <v>3.7000000000000012E-2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E188" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="F188" s="3">
+        <v>3.7000000000000011</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C189" s="2">
         <v>2191.1999999999998</v>
@@ -4695,19 +4699,19 @@
       <c r="D189" s="2">
         <v>9745.9</v>
       </c>
-      <c r="E189" s="2">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="F189" s="2">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E189" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="F189" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C190" s="2">
         <v>680.6</v>
@@ -4715,19 +4719,19 @@
       <c r="D190" s="2">
         <v>3073.6</v>
       </c>
-      <c r="E190" s="2">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="F190" s="2">
-        <v>6.9000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E190" s="3">
+        <v>19.8</v>
+      </c>
+      <c r="F190" s="3">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C191" s="2">
         <v>771.2</v>
@@ -4735,19 +4739,19 @@
       <c r="D191" s="2">
         <v>2615</v>
       </c>
-      <c r="E191" s="2">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="F191" s="2">
-        <v>4.0999999999999988E-2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E191" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="F191" s="3">
+        <v>4.0999999999999988</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C192" s="2">
         <v>2363.6</v>
@@ -4755,19 +4759,19 @@
       <c r="D192" s="2">
         <v>7546.5</v>
       </c>
-      <c r="E192" s="2">
-        <v>0.154</v>
-      </c>
-      <c r="F192" s="2">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E192" s="3">
+        <v>15.4</v>
+      </c>
+      <c r="F192" s="3">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C193" s="2">
         <v>646.79999999999995</v>
@@ -4775,19 +4779,19 @@
       <c r="D193" s="2">
         <v>2395.9</v>
       </c>
-      <c r="E193" s="2">
-        <v>9.4E-2</v>
-      </c>
-      <c r="F193" s="2">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E193" s="3">
+        <v>9.4</v>
+      </c>
+      <c r="F193" s="3">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C194" s="2">
         <v>735.7</v>
@@ -4795,19 +4799,19 @@
       <c r="D194" s="2">
         <v>1836.8</v>
       </c>
-      <c r="E194" s="2">
-        <v>1.9E-2</v>
-      </c>
-      <c r="F194" s="2">
-        <v>4.7E-2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E194" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="F194" s="3">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C195" s="2">
         <v>2406.9</v>
@@ -4815,19 +4819,19 @@
       <c r="D195" s="2">
         <v>5199</v>
       </c>
-      <c r="E195" s="2">
-        <v>0.223</v>
-      </c>
-      <c r="F195" s="2">
-        <v>0.13300000000000001</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E195" s="3">
+        <v>22.3</v>
+      </c>
+      <c r="F195" s="3">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C196" s="2">
         <v>661.1</v>
@@ -4835,62 +4839,62 @@
       <c r="D196" s="2">
         <v>1746.2</v>
       </c>
-      <c r="E196" s="2">
-        <v>5.5E-2</v>
-      </c>
-      <c r="F196" s="2">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E196" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="F196" s="3">
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D197" s="2">
         <v>1099</v>
       </c>
-      <c r="E197" s="2">
+      <c r="E197" s="3">
         <v>0</v>
       </c>
-      <c r="F197" s="2">
-        <v>6.4000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F197" s="3">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D198" s="2">
         <v>2788.5</v>
       </c>
-      <c r="E198" s="2">
+      <c r="E198" s="3">
         <v>0</v>
       </c>
-      <c r="F198" s="2">
-        <v>6.2E-2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F198" s="3">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D199" s="2">
         <v>1085.9000000000001</v>
       </c>
-      <c r="E199" s="2">
+      <c r="E199" s="3">
         <v>0</v>
       </c>
-      <c r="F199" s="2">
-        <v>-1E-3</v>
+      <c r="F199" s="3">
+        <v>-0.1</v>
       </c>
     </row>
   </sheetData>
